--- a/Documentation/ECE 411 BoM.xlsx
+++ b/Documentation/ECE 411 BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris_000\Dropbox\Documents\School Documents\ECE 411 Practicum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E356FC-718B-4142-90D0-09A0AEA1A64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E6ADDA0-ED47-4389-86A2-C1315491B908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="24216" windowHeight="12996" xr2:uid="{270A51C2-A2D3-41F6-A80B-D4A29DE6CC56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{270A51C2-A2D3-41F6-A80B-D4A29DE6CC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,32 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
-  <si>
-    <t>Servo Motors</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="126">
   <si>
     <t>Part</t>
   </si>
   <si>
-    <t>Processor</t>
-  </si>
-  <si>
     <t>ATMEGA32U4-AURCT-ND</t>
   </si>
   <si>
     <t>Qty.</t>
   </si>
   <si>
-    <t>Sensors</t>
-  </si>
-  <si>
     <t>1855-1063-ND</t>
   </si>
   <si>
-    <t>USB Connector</t>
-  </si>
-  <si>
     <t>ED2982-ND</t>
   </si>
   <si>
@@ -78,15 +66,9 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>Rectangular Connectors</t>
-  </si>
-  <si>
     <t>67996-206HLF</t>
   </si>
   <si>
-    <t>6-pin head connector</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -192,42 +174,12 @@
     <t>Capacitor - 4.7u</t>
   </si>
   <si>
-    <t>Capacitor 30p</t>
-  </si>
-  <si>
-    <t>Kemet</t>
-  </si>
-  <si>
-    <t>311-1124-1-ND</t>
-  </si>
-  <si>
     <t>Yageo</t>
   </si>
   <si>
-    <t>CC0805KRX7R9BB471</t>
-  </si>
-  <si>
     <t>470pF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>399-1177-1-ND</t>
-  </si>
-  <si>
-    <t>C0805C104Z5VACTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0.1µF -20%, +80% 50V Ceramic Capacitor Y5V (F) 0805 (2012 Metric)</t>
-  </si>
-  <si>
-    <t>311-1896-6-ND</t>
-  </si>
-  <si>
-    <t>CC0805MKX5R5BB475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	4.7µF ±20% 6.3V Ceramic Capacitor X5R 0805 (2012 Metric)</t>
-  </si>
-  <si>
     <t xml:space="preserve">	311-4234-1-ND</t>
   </si>
   <si>
@@ -237,9 +189,6 @@
     <t>30pF ±5% 50V Ceramic Capacitor C0G, NP0 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t xml:space="preserve">	MBRA140T3GOSCT-ND</t>
-  </si>
-  <si>
     <t>Diodes 40V 1A SMA</t>
   </si>
   <si>
@@ -253,15 +202,6 @@
   </si>
   <si>
     <t xml:space="preserve">	Green 520nm LED Indication - Discrete 3.2V 0805 (2012 Metric)</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>MBRA140T3G</t>
-  </si>
-  <si>
-    <t>Diode Schottky 40V 1A Surface Mount SMA</t>
   </si>
   <si>
     <t xml:space="preserve">	SWITCH TACTILE SPST-NO 0.05A 12V</t>
@@ -343,6 +283,141 @@
 STEM shaft Features：
 -Length 100mm/3.9""
 -Diameter 2mm/0.08""</t>
+  </si>
+  <si>
+    <t>1276-1003-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B104KBCNNNC</t>
+  </si>
+  <si>
+    <t>0.1µF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>1276-1300-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B471KBANNNC</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>Capacitor - 1u</t>
+  </si>
+  <si>
+    <t>1276-6471-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B105KOFNNNG</t>
+  </si>
+  <si>
+    <t>1µF ±10% 16V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>1276-1065-1-ND</t>
+  </si>
+  <si>
+    <t>CL21A475KOFNNNE</t>
+  </si>
+  <si>
+    <t>4.7µF ±10% 16V Ceramic Capacitor X5R 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>B340AE-13DICT-ND</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>B340AE-13</t>
+  </si>
+  <si>
+    <t>Diode Schottky 40V 2A Surface Mount SMA</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 2.54MM</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 2POS 2MM</t>
+  </si>
+  <si>
+    <t>455-1749-1-ND</t>
+  </si>
+  <si>
+    <t>JST Sales America Inc.</t>
+  </si>
+  <si>
+    <t>S2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Connector Header Surface Mount, Right Angle 2 position 0.079" (2.00mm)</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RC0805FR-071KL</t>
+  </si>
+  <si>
+    <t>311-1.00KCRCT-ND</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>311-10.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>10 kOhms ±1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>RES SMD 22 OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>311-22.0CRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0805FR-0722RL</t>
+  </si>
+  <si>
+    <t>22 Ohms ±1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE DPDT 100MA 12V</t>
+  </si>
+  <si>
+    <t>401-2013-1-ND</t>
+  </si>
+  <si>
+    <t>AYZ0202AGRLC</t>
+  </si>
+  <si>
+    <t>Slide Switch DPDT Surface Mount</t>
+  </si>
+  <si>
+    <t>CONN RCPT TYPEB 4POS R/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC MCU 8BIT 32KB FLASH 44TQFP </t>
+  </si>
+  <si>
+    <t>SENSOR OPTICAL 80CM DIGITAL</t>
+  </si>
+  <si>
+    <t>SERVOMOTOR 5VDC TOWERPRO SG92R</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 3POS 2.54MM</t>
+  </si>
+  <si>
+    <t>Capacitor - 30p</t>
   </si>
 </sst>
 </file>
@@ -354,7 +429,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000_);[Red]\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +463,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -489,15 +571,6 @@
     <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,20 +589,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,7 +639,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -567,16 +652,16 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -813,8 +898,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C9A0F86-AFB2-44A7-BFCD-E6FB962C0151}" name="Table1" displayName="Table1" ref="B4:L24" totalsRowCount="1" headerRowDxfId="16">
-  <autoFilter ref="B4:L23" xr:uid="{7ABD7FDF-07E0-45E6-8BBE-37654BB48947}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C9A0F86-AFB2-44A7-BFCD-E6FB962C0151}" name="Table1" displayName="Table1" ref="B4:L30" totalsRowCount="1" headerRowDxfId="16">
+  <autoFilter ref="B4:L29" xr:uid="{7ABD7FDF-07E0-45E6-8BBE-37654BB48947}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:L29">
+    <sortCondition ref="B4:B29"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E12AEBC6-C6D6-440C-82A2-8E22CAE994D1}" name="Part" totalsRowLabel="Total" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{6CB6176A-8954-4CF0-A16D-E7AABE893E3A}" name="Qty." dataDxfId="14"/>
@@ -1131,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E1BD2E-BE66-4D4A-BED6-FB2102176C8D}">
-  <dimension ref="B1:L34"/>
+  <dimension ref="B1:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,27 +1240,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -1182,10 +1270,10 @@
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -1196,581 +1284,581 @@
     </row>
     <row r="4" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
+      <c r="B5" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="18">
-        <v>169</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H5" s="6">
-        <v>5.95</v>
+        <v>0.53</v>
       </c>
       <c r="I5" s="6">
-        <f>C5*H5</f>
-        <v>71.400000000000006</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>33</v>
+        <f t="shared" ref="I5:I29" si="0">C5*H5</f>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>2</v>
+      <c r="B6" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3456</v>
       </c>
       <c r="H6" s="6">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" ref="I6:I9" si="0">C6*H6</f>
-        <v>16.8</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>15.8</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="6">
-        <v>10.86</v>
+        <v>0.27</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>43.44</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>29</v>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>95</v>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>97</v>
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="H8" s="6">
-        <v>11.99</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>11.99</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="8"/>
+        <v>1.5299999999999998</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="7"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="6">
-        <v>0.57999999999999996</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>32</v>
+        <v>1.41</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="H10" s="6">
-        <v>0.43</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="I10" s="6">
-        <f>C10*H10</f>
-        <v>1.72</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>67</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="H11" s="6">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I11:I16" si="1">C11*H11</f>
-        <v>4.2</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="8"/>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="7"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C12" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>71</v>
+        <v>46</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="H12" s="6">
-        <v>0.18</v>
+        <v>0.108</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="8"/>
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="7"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
-        <v>76</v>
+      <c r="B13" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="H13" s="6">
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6500000000000004</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="8"/>
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
-        <v>84</v>
+      <c r="B14" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C14" s="4">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="16">
+        <v>61300311121</v>
+      </c>
+      <c r="H14" s="9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>2.8000000000000003</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="1"/>
-        <v>4.45</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="6">
         <v>0.3</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="1"/>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="19">
-        <v>3456</v>
-      </c>
-      <c r="H17" s="6">
-        <v>3.95</v>
-      </c>
-      <c r="I17" s="6">
-        <f>C17*H17</f>
-        <v>15.8</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="8"/>
+      <c r="J17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>47</v>
+        <v>95</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="H18" s="6">
-        <v>0.27</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="I18" s="6">
-        <f>C18*H18</f>
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="8"/>
+        <f t="shared" si="0"/>
+        <v>2.98</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>49</v>
+      <c r="B19" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>56</v>
+        <v>19</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="H19" s="6">
-        <v>0.11</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I19" s="6">
-        <f>C19*H19</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="8"/>
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>50</v>
+      <c r="B20" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C20" s="4">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="6">
-        <v>5.7000000000000002E-2</v>
+        <v>4.2</v>
       </c>
       <c r="I20" s="6">
-        <f>C20*H20</f>
-        <v>1.71</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>51</v>
+      <c r="B21" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="H21" s="6">
-        <v>0.16700000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I21" s="6">
-        <f>C21*H21</f>
-        <v>3.3400000000000003</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="8"/>
+        <f t="shared" si="0"/>
+        <v>4.45</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1778,98 +1866,290 @@
         <v>52</v>
       </c>
       <c r="C22" s="4">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="6">
+        <v>11.99</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>11.99</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="4">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="4">
         <v>10</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.108</v>
-      </c>
-      <c r="I22" s="6">
-        <f>C22*H22</f>
-        <v>1.08</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4">
-        <v>25</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="19">
-        <v>61300311121</v>
-      </c>
-      <c r="H23" s="9">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I23" s="6">
-        <f>C23*H23</f>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="6">
+        <v>10.86</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>43.44</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="4">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="15">
+        <v>169</v>
+      </c>
+      <c r="H28" s="6">
+        <v>5.95</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1.43</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>7.1499999999999995</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
         <f>SUBTOTAL(109,Table1[Unit Price])</f>
-        <v>41.640000000000008</v>
-      </c>
-      <c r="I24" s="2">
+        <v>43.621000000000002</v>
+      </c>
+      <c r="I30" s="2">
         <f>SUBTOTAL(109,Table1[Total])</f>
-        <v>200.55</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>211.77</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+    </row>
     <row r="31" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="L34" s="2"/>
+    <row r="33" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="8:12" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1878,30 +2158,36 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{EF85C98E-962F-43B3-BAAD-40C520ACBF9D}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{35517009-01D8-4F4E-A343-ED58DC412BF7}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{C51AA69F-33C9-4B13-93E2-326810A8B679}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{4DB07D03-6EB4-4555-B767-EC62FD6DA813}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{783D90B3-373B-4084-89E5-71E8F42647B0}"/>
-    <hyperlink ref="E23" r:id="rId6" xr:uid="{1280CA76-8066-4DD4-A516-03B19DC2E032}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{172BBA7B-1018-408E-AD71-4618D31A02A9}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{F1ABF977-BE67-4BA6-9720-63B315B9517E}"/>
-    <hyperlink ref="E19" r:id="rId9" xr:uid="{17C731A7-A8EA-4F10-87CB-27B55BFD2CD3}"/>
-    <hyperlink ref="E20" r:id="rId10" xr:uid="{993D8ED9-607C-4C3A-BC5F-FA51F6AFA2EC}"/>
-    <hyperlink ref="E21" r:id="rId11" xr:uid="{80C4B439-8F66-445E-8810-3F428AE74793}"/>
-    <hyperlink ref="E22" r:id="rId12" xr:uid="{A65C7B2C-98AA-46DC-926F-CE6890C194FB}"/>
-    <hyperlink ref="E11" r:id="rId13" xr:uid="{BBAADCAF-ACC2-43CA-BF29-915B5F99DF38}"/>
-    <hyperlink ref="E12" r:id="rId14" xr:uid="{7640C4AA-B1A1-41BC-947F-87B72D6FAF33}"/>
-    <hyperlink ref="E13" r:id="rId15" xr:uid="{8F79B3FF-557B-405B-9707-75C8444A0DBE}"/>
-    <hyperlink ref="E14" r:id="rId16" xr:uid="{8B677DE3-ADEB-4166-BA02-3FC7C7965E0B}"/>
-    <hyperlink ref="E15" r:id="rId17" xr:uid="{D4A801EF-1056-468F-8CF4-E44558F70FA0}"/>
-    <hyperlink ref="E16" r:id="rId18" xr:uid="{6755B4BB-1ADE-4FF7-8409-751FF5F03499}"/>
-    <hyperlink ref="E8" r:id="rId19" xr:uid="{CC6CFFCE-D85B-446D-9794-F7CE35034E03}"/>
+    <hyperlink ref="E28" r:id="rId1" xr:uid="{EF85C98E-962F-43B3-BAAD-40C520ACBF9D}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{35517009-01D8-4F4E-A343-ED58DC412BF7}"/>
+    <hyperlink ref="E27" r:id="rId3" xr:uid="{C51AA69F-33C9-4B13-93E2-326810A8B679}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{4DB07D03-6EB4-4555-B767-EC62FD6DA813}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{783D90B3-373B-4084-89E5-71E8F42647B0}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{1280CA76-8066-4DD4-A516-03B19DC2E032}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{172BBA7B-1018-408E-AD71-4618D31A02A9}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{F1ABF977-BE67-4BA6-9720-63B315B9517E}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{17C731A7-A8EA-4F10-87CB-27B55BFD2CD3}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{993D8ED9-607C-4C3A-BC5F-FA51F6AFA2EC}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{80C4B439-8F66-445E-8810-3F428AE74793}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{A65C7B2C-98AA-46DC-926F-CE6890C194FB}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{BBAADCAF-ACC2-43CA-BF29-915B5F99DF38}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{7640C4AA-B1A1-41BC-947F-87B72D6FAF33}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{8F79B3FF-557B-405B-9707-75C8444A0DBE}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{8B677DE3-ADEB-4166-BA02-3FC7C7965E0B}"/>
+    <hyperlink ref="E21" r:id="rId17" xr:uid="{D4A801EF-1056-468F-8CF4-E44558F70FA0}"/>
+    <hyperlink ref="E17" r:id="rId18" xr:uid="{6755B4BB-1ADE-4FF7-8409-751FF5F03499}"/>
+    <hyperlink ref="E23" r:id="rId19" xr:uid="{CC6CFFCE-D85B-446D-9794-F7CE35034E03}"/>
+    <hyperlink ref="E8" r:id="rId20" xr:uid="{DF2DBABA-2A3F-4269-A464-6AE1947E92EF}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{5B72DAB8-845C-45FA-B8F0-133ACBAA09A2}"/>
+    <hyperlink ref="E25" r:id="rId22" xr:uid="{6D92BC41-269C-4DB8-91A7-B3CD103ABB62}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{E4E64EFF-EF08-4769-86F2-5CD541FF2118}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{F73012F9-8CE7-42A0-BC2C-7780D6BE80A8}"/>
+    <hyperlink ref="E29" r:id="rId25" xr:uid="{01412579-046A-4C5A-BBCA-5FC3B1389AA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>